--- a/test_ws_data.xlsx
+++ b/test_ws_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="161">
   <si>
     <t>商品編號</t>
   </si>
@@ -448,6 +448,60 @@
   </si>
   <si>
     <t xml:space="preserve">https://shoplineimg.com/57ce924a617069115ccd1a00/5c0673e6aafcc40fdb6f0e7a/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5c0673eeac8e0f0012e1f75a/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5c0673ea7bfc23001247f32a/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5c0673e99d7113001827f148/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5bd95ae9bdae4d00121bf386/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5bd95af0819e9b0010ff5ae4/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5bd95af7bdae4d00181bf945/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5bd95afa704d1900116201cc/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5bd95af28a8cf00018b3e079/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5bd95afd518f9400189cf493/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5bd95afc462c80000f66f325/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5c6e6254c63d63002c6a59d6/750x.jpg?　</t>
+  </si>
+  <si>
+    <t>品名：立體Logo飛行外套&lt;br&gt;款式：MA1飛行外套&lt;br&gt;商品重點：背後反光 印花網狀拼接設計 休閒款&lt;br&gt;&lt;br&gt;洗滌說明：&lt;br&gt;1.深淺衣物要分開洗滌&lt;br&gt;2.勿使用烘乾機,避免縮水&lt;br&gt;3.勿直接熨燙印花,貼布&lt;br&gt;4.商品顏色請以平拍單品照為準&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shoplineimg.com/57ce924a617069115ccd1a00/5fa3c68c82fb36889e78e3dd/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5fa3c68bdd890f00293d94f1/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5fa3c68d91d41f0017ea7313/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5f98d5b18ef4c800291e989c/750x.gif?　https://shoplineimg.com/57ce924a617069115ccd1a00/5f98d5b000b7b80038c502e8/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5f98d5a7fd94660038dbcf1f/750x.gif?　https://shoplineimg.com/57ce924a617069115ccd1a00/5f98d5a9961bfe0029711646/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5f98d5af5e0ef84dd2dd54ea/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5f98d5b05e0ef80029dda8d0/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5f98d5aa961bfe236c70b10c/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5f98d5aaee14d6001d557eef/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5f98d5addce26f002fd06268/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5fa28d15cfeeb0266e1ecdb4/750x.jpg?　</t>
+  </si>
+  <si>
+    <t>品名：手臂透字MA1&lt;br&gt;款式：MA1飛行外套&lt;br&gt;商品重點：異材質造型口袋 撞色印花&lt;br&gt;&lt;br&gt;洗滌說明：&lt;br&gt;1.深淺衣物要分開洗滌&lt;br&gt;2.勿使用烘乾機,避免縮水&lt;br&gt;3.勿直接熨燙印花,貼布&lt;br&gt;&lt;br&gt;4.商品顏色請以平拍單品照為準&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shoplineimg.com/57ce924a617069115ccd1a00/5e1ecf0d22874b003c480fef/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e16d587a738560033950f14/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e16d585d26f520018feae62/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e16d589728afc00247c8a5e/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e16d58d4d9f35001581bdc6/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e16d58db61e041d800fde69/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e16d58cf46e0c2539d0384a/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e170b23728afc00187c902d/750x.jpg?　</t>
+  </si>
+  <si>
+    <t>品名：流湯大Logo教練外套&lt;br&gt;款式：風衣教練外套&lt;br&gt;商品重點：字母印花 基本款&lt;br&gt;&lt;br&gt;洗滌說明：&lt;br&gt;1.深淺衣物要分開洗滌&lt;br&gt;2.勿使用烘乾機,避免縮水&lt;br&gt;3.勿直接熨燙印花,貼布&lt;br&gt;4.商品顏色請以平拍單品照為準&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shoplineimg.com/57ce924a617069115ccd1a00/5e12e84399fc57000fe568f8/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e12e845a5c2f00015810533/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e12e845a5c2f0002a810458/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e12e846a5c2f0001b810595/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e12e845125d04003cb9aa6c/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5ddf6a370eb4200018eaf5e0/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5ddf6a36cdd345001251ff55/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5ddf6a3ae257b03d405ab05f/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5ddf6a39e257b0003a5ab81c/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5ddf6a3b0b0ff6002a36a817/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5ddf6a35b5ca5457ec9eb57b/750x.jpg?　</t>
+  </si>
+  <si>
+    <t>品名：基本小Logo連帽外套&lt;br&gt;款式：長袖拉鍊連帽外套&lt;br&gt;商品重點：基本休閒款&lt;br&gt;&lt;br&gt;洗滌說明：&lt;br&gt;1.深淺衣物要分開洗滌&lt;br&gt;2.勿使用烘乾機,避免縮水&lt;br&gt;3.勿直接熨燙印花,貼布&lt;br&gt;4.商品顏色請以平拍單品照為準&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shoplineimg.com/57ce924a617069115ccd1a00/5e28322af27fbe3fd49749ea/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e28322aedb85f002af6db72/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e28322915e3130021642db8/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e1ed1c2bdcb85000f404734/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5df1adf25cb3cf5b7c824e3b/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5df1adf2f062bc314f6ec5a7/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5df1adf35c0d205a89e4ebe5/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5df1adf5704b9e002d8d77d4/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5df1adf1447db540ecb97885/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5df1adf2447db5001bb99a0e/750x.jpg?　</t>
+  </si>
+  <si>
+    <t>品名：科技Logo連帽MA1&lt;br&gt;款式：鋪棉連帽外套&lt;br&gt;商品重點：鋪棉保暖 帽子可拆&lt;br&gt;&lt;br&gt;洗滌說明：&lt;br&gt;1.深淺衣物要分開洗滌&lt;br&gt;2.勿使用烘乾機,避免縮水&lt;br&gt;3.勿直接熨燙印花,貼布&lt;br&gt;4.商品顏色請以平拍單品照為準&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shoplineimg.com/57ce924a617069115ccd1a00/5e37c67204b889000f8d0ce1/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e37c671643c54003924b3ce/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e37c67104b88900158d0c3b/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e37c6719ebcc4002768d4e9/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e37c671ba361c0021260ef3/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e041eab1add2a5d06ab217b/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e041eab3ec1ce0015435e5c/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e041eabd07dbf00369fe7e4/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e041eab50987f0cdf0574ae/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e041eab6071650039f65686/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e041eab3ec1ce003c435e13/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e041eae1996b46cd52caf69/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e041eaf785ea200187883fb/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e041eafda06b0001875d567/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e041eaf50987f4ebf058424/750x.jpg?　</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shoplineimg.com/57ce924a617069115ccd1a00/5e16d3d3f46e0c0025d05900/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e16d3d37d4a51002d165961/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e16d3db11d242818057aed8/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e16d3d5728afc5fb87c65e3/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e16d3d7e605950012dd7d27/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e16d3d6adc77f000fccd7a2/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e170b2d7d6423001e66a530/750x.jpg?　</t>
+  </si>
+  <si>
+    <t>品名：立體大LOGO教練外套&lt;br&gt;&lt;br&gt;款式：風衣教練外套&lt;br&gt;商品重點：圖案印花 休閒款&lt;br&gt;&lt;br&gt;洗滌說明：&lt;br&gt;1.深淺衣物要分開洗滌&lt;br&gt;2.勿使用烘乾機,避免縮水&lt;br&gt;3.勿直接熨燙印花,貼布&lt;br&gt;&lt;br&gt;4.商品顏色請以平拍單品照為準&lt;br&gt;&lt;br&gt;注意事項：&lt;br&gt;此商品為特價出清優惠，恕不提供退換貨。&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shoplineimg.com/57ce924a617069115ccd1a00/5c4ebb897b9647000f1da5f6/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5c4ebb8be6933f00190262fa/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5c4ebb87db41240015385d8f/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5c4ebb87f61296001816b043/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5c4ebb87c4d5ba000f6de338/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5c0f6fb3a10a1f001216de4f/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5c0f6fb2bb2e34000f262f68/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5c0f6fb40711cd00183c7375/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5c0f6fb49a233f0012dd7ec6/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5c0f6fb5a10a1f001516db5b/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5c0f6fb14194930012e67d38/750x.jpg?　</t>
+  </si>
+  <si>
+    <t>注意事項 :&lt;br&gt;&lt;br&gt;1.此商品為現貨+預購商品，需等待14-21天(不含假日)，且不受理急件。若是提早到貨，則會依序訂單編號發貨，若無法等待者請勿下單，謝謝。&lt;br&gt;2.若因突發不可抗拒之因素，致使預購商品無法如預計時間到貨，WOODSTUCK 將保留取消您下單商品的權利，取消後也將主動通知，而事先付款的客人將會辦理退款事宜。&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shoplineimg.com/57ce924a617069115ccd1a00/5fab82139ba0a40023397e9b/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5fab8212f5b95a001aee8725/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5fab82148976e2001dd30f37/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5fab8215a73b940011c187db/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5fab82146aaee0002398381c/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e97eaef636e6f0012a1d143/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e97eaee2499c8002a5d855a/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e97eaef87315a00360b9422/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e97eae8a71536000f80e052/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e97eae9a71536003c80dc2a/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e97eaed636e6f001ba1d248/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e97eaee35181b00337a9833/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e97eaf05eed2f003969f81f/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e97eaf139f0aa00102edec4/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e97eae9c07c7700181940ff/750x.jpg?　</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shoplineimg.com/57ce924a617069115ccd1a00/5c2dbaf909fce6000f229dfb/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5c2dbafc18b85830d0091aa8/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5c2dbafbe724ec211351de1e/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5c2dbafcdeba880018ddad9a/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5c2dbafcc084be000f306ae3/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5c0f6e81a8a0275f5f6424af/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5c0f6e81793ec400187961a3/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5c0f6e84d7ee36001583e182/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5c0f6e84877a73001838fdd2/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5c0f6e84d7ee36000f83e7a7/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5c0f6e7d4c0204001888c89e/750x.jpg?　</t>
+  </si>
+  <si>
+    <t>品名：基本款連帽牛仔外套&lt;br&gt;&lt;br&gt;款式：水洗牛仔外套&lt;br&gt;商品重點：素面百搭 休閒款式&lt;br&gt;&lt;br&gt;洗滌說明：&lt;br&gt;1.深淺衣物要分開洗滌&lt;br&gt;2.勿使用烘乾機,避免縮水&lt;br&gt;3.勿直接熨燙印花,貼布&lt;br&gt;&lt;br&gt;4.商品顏色請以平拍單品照為準&lt;br&gt;&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shoplineimg.com/57ce924a617069115ccd1a00/5e283a89b6b4860015a0b5d3/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e283a8970200500337b1cef/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e283a8788801f0027d57183/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e283a865246d000369fd0af/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e283a876c1b1f61d2a3b7d5/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e283951a8e53a002d2e93b1/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e283951468e30671f462726/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e283957b6b4868031a08003/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e283958468e30212345ef70/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5a82dd806ef2d4fb48000dbe/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e28395394aeed6a5768d32e/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5e99451e0dc59f00309db72d/750x.jpg?　https://shoplineimg.com/57ce924a617069115ccd1a00/5a82dd7f59d5249344000fb8/750x.jpg?　</t>
   </si>
 </sst>
 </file>
@@ -785,12 +839,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.5703125" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.5703125" collapsed="false"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" width="10.42578125" collapsed="false"/>
-    <col min="8" max="10" bestFit="true" customWidth="true" width="5.42578125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="8" max="10" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -874,10 +928,10 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -995,10 +1049,10 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1083,10 +1137,10 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="H25" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -1138,10 +1192,10 @@
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="H30" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -1149,10 +1203,10 @@
         <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="H31" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -1182,10 +1236,10 @@
         <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -1204,10 +1258,10 @@
         <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -1259,10 +1313,10 @@
         <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="H41" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -1270,10 +1324,10 @@
         <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -1281,10 +1335,10 @@
         <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="H43" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
